--- a/FP-Prediction.xlsx
+++ b/FP-Prediction.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FP</t>
   </si>
@@ -47,12 +47,21 @@
   <si>
     <t>UC</t>
   </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Drag'n'Drop</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +80,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -212,24 +226,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -260,6 +256,24 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -281,42 +295,13 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color rgb="FFCCCCCC"/>
         </left>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
+        <right/>
         <top style="medium">
           <color rgb="FFCCCCCC"/>
         </top>
@@ -374,13 +359,13 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
+        <left/>
+        <right style="medium">
           <color rgb="FFCCCCCC"/>
-        </left>
-        <right/>
+        </right>
         <top style="medium">
           <color rgb="FFCCCCCC"/>
         </top>
@@ -398,13 +383,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFCCCCCC"/>
         </left>
@@ -417,6 +395,42 @@
         <bottom style="medium">
           <color rgb="FFCCCCCC"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -446,36 +460,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -597,6 +581,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-86A8-4EB1-9333-AAA72BE3B26D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Berechnung!$D$10:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Berechnung!$C$10:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F3DD-4FA3-8A2D-EF759EF874B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -878,6 +947,7 @@
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1497,13 +1567,57 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16268</cdr:x>
+      <cdr:y>0.10217</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84476</cdr:x>
+      <cdr:y>0.74074</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Gerader Verbinder 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="1513246" y="614516"/>
+          <a:ext cx="6344879" cy="3840726"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B5:D9" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="B5:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B5:D12" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="B5:D12"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="UC" dataDxfId="1"/>
-    <tableColumn id="2" name="FP" dataDxfId="2"/>
-    <tableColumn id="3" name="Stunden" dataDxfId="3"/>
+    <tableColumn id="1" name="UC" dataDxfId="2"/>
+    <tableColumn id="2" name="FP" dataDxfId="1"/>
+    <tableColumn id="3" name="Stunden" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1772,78 +1886,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D11"/>
+  <dimension ref="B5:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="3">
         <v>37.450000000000003</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="1">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="4">
         <v>13.91</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="3">
         <v>13.91</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>29.96</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12">
+        <v>9.1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12">
+        <v>42</v>
+      </c>
+      <c r="D11" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15">
+        <v>9.1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
